--- a/table_compare.models.xlsx
+++ b/table_compare.models.xlsx
@@ -49,22 +49,22 @@
     <t>forest</t>
   </si>
   <si>
+    <t>tree</t>
+  </si>
+  <si>
     <t>knn</t>
   </si>
   <si>
-    <t>tree</t>
-  </si>
-  <si>
     <t>svm</t>
   </si>
   <si>
     <t>ridge</t>
   </si>
   <si>
+    <t>lasso</t>
+  </si>
+  <si>
     <t>linear</t>
-  </si>
-  <si>
-    <t>lasso</t>
   </si>
   <si>
     <t>dummy</t>
@@ -86,30 +86,30 @@
              num_leaves=300, num_parallel_tree=None, ...)</t>
   </si>
   <si>
-    <t>&lt;keras.src.engine.sequential.Sequential object at 0x37948c090&gt;</t>
+    <t>&lt;keras.src.engine.sequential.Sequential object at 0x379b42a50&gt;</t>
   </si>
   <si>
     <t>RandomForestRegressor(max_depth=41, min_samples_leaf=6, min_samples_split=17,
                       n_estimators=33, random_state=1012)</t>
   </si>
   <si>
-    <t>KNeighborsRegressor(algorithm='brute', leaf_size=200)</t>
-  </si>
-  <si>
     <t>DecisionTreeRegressor(max_depth=25, min_samples_leaf=7, min_samples_split=24,
                       random_state=1012)</t>
   </si>
   <si>
+    <t>KNeighborsRegressor(algorithm='brute', leaf_size=200)</t>
+  </si>
+  <si>
     <t>SVR(C=100, degree=5, gamma=0.01, kernel='linear')</t>
   </si>
   <si>
-    <t>Ridge(alpha=0.769, random_state=1012, solver='sparse_cg')</t>
+    <t>Ridge(alpha=4.432, random_state=1012, solver='cholesky')</t>
+  </si>
+  <si>
+    <t>Lasso(alpha=4.723, random_state=1012)</t>
   </si>
   <si>
     <t>LinearRegression()</t>
-  </si>
-  <si>
-    <t>Lasso(alpha=4.924, random_state=1012, selection='random')</t>
   </si>
   <si>
     <t>DummyRegressor(strategy='median')</t>
@@ -507,19 +507,19 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>34577.06775289748</v>
+        <v>33735.61008441504</v>
       </c>
       <c r="D2">
-        <v>0.1319206946928136</v>
+        <v>0.1287610715281324</v>
       </c>
       <c r="E2">
-        <v>48386.84196082599</v>
+        <v>46909.77712886186</v>
       </c>
       <c r="F2">
-        <v>0.8541785382985084</v>
+        <v>0.8623518519764908</v>
       </c>
       <c r="G2">
-        <v>0.06393694877624512</v>
+        <v>0.06618618965148926</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -533,19 +533,19 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>35766.50204357362</v>
+        <v>34808.42819721757</v>
       </c>
       <c r="D3">
-        <v>0.1379802691944501</v>
+        <v>0.1338065893884028</v>
       </c>
       <c r="E3">
-        <v>47687.31989384927</v>
+        <v>46307.88024720777</v>
       </c>
       <c r="F3">
-        <v>0.8534997701644897</v>
+        <v>0.86163330078125</v>
       </c>
       <c r="G3">
-        <v>0.01277899742126465</v>
+        <v>0.02053403854370117</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -559,19 +559,19 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>39263.02656999027</v>
+        <v>39531.11744188676</v>
       </c>
       <c r="D4">
-        <v>0.1418586057175219</v>
+        <v>0.1416254326323993</v>
       </c>
       <c r="E4">
-        <v>152705.0206165886</v>
+        <v>148665.9190236987</v>
       </c>
       <c r="F4">
-        <v>0.8085852861404419</v>
+        <v>0.8094843029975891</v>
       </c>
       <c r="G4">
-        <v>0.2530958652496338</v>
+        <v>0.2672679424285889</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>37455.96836600175</v>
+        <v>37164.23443356185</v>
       </c>
       <c r="D5">
-        <v>0.1429447372334369</v>
+        <v>0.1417843090197713</v>
       </c>
       <c r="E5">
-        <v>49285.55882504373</v>
+        <v>48830.46583667088</v>
       </c>
       <c r="F5">
-        <v>0.8420095389603999</v>
+        <v>0.8447480217968955</v>
       </c>
       <c r="G5">
-        <v>0.05989980697631836</v>
+        <v>0.02207684516906738</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -611,19 +611,19 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>41314.10998552822</v>
+        <v>43046.44694636204</v>
       </c>
       <c r="D6">
-        <v>0.1591152720291143</v>
+        <v>0.163165608326663</v>
       </c>
       <c r="E6">
-        <v>53853.05579597024</v>
+        <v>56031.55436006267</v>
       </c>
       <c r="F6">
-        <v>0.8100573610641817</v>
+        <v>0.7941625485337166</v>
       </c>
       <c r="G6">
-        <v>0.1362030506134033</v>
+        <v>0.002106904983520508</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -637,19 +637,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>42759.90234466444</v>
+        <v>43368.80969609262</v>
       </c>
       <c r="D7">
-        <v>0.1615672645463274</v>
+        <v>0.1699172949546413</v>
       </c>
       <c r="E7">
-        <v>54714.07871338545</v>
+        <v>53718.34284545826</v>
       </c>
       <c r="F7">
-        <v>0.8011917764487282</v>
+        <v>0.803481047321378</v>
       </c>
       <c r="G7">
-        <v>0.00118708610534668</v>
+        <v>0.3429300785064697</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -663,19 +663,19 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>50991.57189024182</v>
+        <v>49594.79772176372</v>
       </c>
       <c r="D8">
-        <v>0.1933259880800109</v>
+        <v>0.1887041258910305</v>
       </c>
       <c r="E8">
-        <v>63075.99620736732</v>
+        <v>61752.35921621209</v>
       </c>
       <c r="F8">
-        <v>0.7287654047956535</v>
+        <v>0.7413701165178461</v>
       </c>
       <c r="G8">
-        <v>1.198868989944458</v>
+        <v>1.980922937393188</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -689,19 +689,19 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>50841.91925058918</v>
+        <v>49613.6523998075</v>
       </c>
       <c r="D9">
-        <v>0.2100361170637232</v>
+        <v>0.2086258822213254</v>
       </c>
       <c r="E9">
-        <v>57124.78267531281</v>
+        <v>55730.95697629502</v>
       </c>
       <c r="F9">
-        <v>0.7588865470099717</v>
+        <v>0.7704590314770853</v>
       </c>
       <c r="G9">
-        <v>0.001510143280029297</v>
+        <v>0.001936197280883789</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -715,19 +715,19 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>50844.91324220859</v>
+        <v>49651.05136596803</v>
       </c>
       <c r="D10">
-        <v>0.2100623255275863</v>
+        <v>0.20869886914498</v>
       </c>
       <c r="E10">
-        <v>57121.57282785366</v>
+        <v>55769.79080940721</v>
       </c>
       <c r="F10">
-        <v>0.7588891140907545</v>
+        <v>0.7701274508353438</v>
       </c>
       <c r="G10">
-        <v>0.01215386390686035</v>
+        <v>0.001061916351318359</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -741,19 +741,19 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>50844.03741681162</v>
+        <v>49618.02401046733</v>
       </c>
       <c r="D11">
-        <v>0.2100653560245203</v>
+        <v>0.2093699562877489</v>
       </c>
       <c r="E11">
-        <v>57120.58409905372</v>
+        <v>55583.90256871725</v>
       </c>
       <c r="F11">
-        <v>0.7588974430344931</v>
+        <v>0.7711160389509735</v>
       </c>
       <c r="G11">
-        <v>0.0006601810455322266</v>
+        <v>0.002648115158081055</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -779,7 +779,7 @@
         <v>-0.08244041817135739</v>
       </c>
       <c r="G12">
-        <v>0.0001769065856933594</v>
+        <v>0.0001540184020996094</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
